--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,72 +496,207 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>奨学金</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>住宅ローン</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>通勤時間</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>最終学歴</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>病院種類</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>病床機能</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>病院規模</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>診療科</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>夜勤形態</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>異動頻度の経験</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>現在の役割</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>昇進意欲</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>専門・認定取得の現実性</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>看護資格</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>年収</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>月平均残業時間</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>有給取得率</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>受け持ち患者数</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>上司との関係</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>同僚との関係</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>現在のストレスレベル</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>昇進意欲</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>専門性追求型</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>安定・現状維持型</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ワークライフバランス型</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>経済報酬型</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>バーンアウト傾向</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>ワークエンゲージメント</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>職務満足度</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>組織コミットメント</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>リスク回避傾向</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>変化への適応性</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>金銭的価値観</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>自己効力感</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>他者依存傾向</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>経済的不安</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>キャリアの行き詰まり感</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>身体的疲労の蓄積</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>孤立感・相談相手不在感</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>仕事と家庭の両立困難感</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>転職・退職意向</t>
         </is>
       </c>
     </row>
@@ -620,71 +755,206 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>返済中</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>30～60分</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>15～30分</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>専門学校</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>民間急性期</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>急性期</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>100～200床未満</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>内科系</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>10-30時間</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>50-79%</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
           <t>高</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z2" t="n">
-        <v>480</v>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -722,7 +992,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>中学生以降</t>
+          <t>大学生</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -732,7 +1002,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>共働き(主な稼ぎ手)</t>
+          <t>共働き（主な稼ぎ手）</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -742,71 +1012,206 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>返済済み</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>30～60分</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>15～30分</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>専門学校</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>民間急性期</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>急性期</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>100～200床未満</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>200–400床</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>内科系</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v>450</v>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>10-30時間</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>50-79%</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -831,7 +1236,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5～20万人</t>
+          <t>20～50万人</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -864,71 +1269,206 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>返済済み</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>30～60分</t>
+          <t>あり（負担軽い）</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>15～30分</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>専門学校</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>公立病院</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>慢性期</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>100～200床未満</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>内科系</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z4" t="n">
-        <v>450</v>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>10-30時間</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>80%以上</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -949,11 +1489,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>20～50万人</t>
+          <t>5～20万人</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -966,12 +1506,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>中学生以降</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>なし</t>
+          <t>親・家族の介護あり</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -986,59 +1526,59 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>返済済み</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>15～30分</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>専門学校</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>公立病院</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>慢性期</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>100～200床未満</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>内科系</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X5" t="inlineStr">
         <is>
           <t>低</t>
@@ -1046,11 +1586,146 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z5" t="n">
-        <v>400</v>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>10時間未満</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>80%以上</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>検討中</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1108,71 +1783,206 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>返済済み</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>あり（負担重い）</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>15～30分</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>専門学校</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>公立病院</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>慢性期</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>急性期</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>100～200床未満</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>内科系</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z6" t="n">
-        <v>450</v>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>10-30時間</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>50%未満</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>検討中</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1230,71 +2040,206 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>返済中</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>15～30分</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>専門学校</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>民間急性期</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>急性期</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>100～200床未満</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>外科系</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>ICU</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z7" t="n">
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
         <v>450</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>10-30時間</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>50-79%</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1352,59 +2297,59 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>返済済み</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>15～30分</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>専門学校</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>公立病院</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>慢性期</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>100～200床未満</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>内科系</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X8" t="inlineStr">
         <is>
           <t>低</t>
@@ -1412,11 +2357,146 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z8" t="n">
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
         <v>450</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>10-30時間</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>50%未満</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1474,71 +2554,206 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>返済中</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>15～30分</t>
+          <t>なし</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>専門学校</t>
+          <t>30～60分</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>大学</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>民間急性期</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>急性期</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>100～200床未満</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>内科系</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>外科系</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>高</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z9" t="n">
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
         <v>450</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>10-30時間</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>50-79%</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>検討中</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1576,17 +2791,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>中学生以降</t>
+          <t>27歳</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>なし</t>
+          <t>親・家族の介護あり</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>共働き（主な稼ぎ手）</t>
+          <t>共働き(主な稼ぎ手)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1596,71 +2811,206 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>無</t>
+          <t>返済済み</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>15～30分</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>専門学校</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>公立病院</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>慢性期</t>
+          <t>民間急性期</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>急性期</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>100～200床未満</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>内科系</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z10" t="n">
-        <v>500</v>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>10時間未満</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>80%以上</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1718,71 +3068,206 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>有</t>
+          <t>返済済み</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>30～60分</t>
+          <t>あり（負担重い）</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>15～30分</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>専門学校</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>公立病院</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>慢性期</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>100～200床未満</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>内科系</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>月2,3回の当直</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>少ない</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>スタッフ</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>低</t>
+          <t>中</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>なし</t>
-        </is>
-      </c>
-      <c r="Z11" t="n">
+          <t>低</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
         <v>450</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>10-30時間</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>50%未満</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>適正</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>良好</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>バランス</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>低</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
       </c>
     </row>
   </sheetData>
